--- a/Banco Central/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
+++ b/Banco Central/9/4/Indice general de remuneraciones y costo de la mano de obra 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t>Serie</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C531"/>
+  <dimension ref="A1:C532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7199,9 +7202,20 @@
         <v>532</v>
       </c>
       <c r="B531">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C531">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>533</v>
+      </c>
+      <c r="B532">
+        <v>5.9</v>
+      </c>
+      <c r="C532">
         <v>6.3</v>
       </c>
     </row>
